--- a/nopCommerce_SQA/testdata/tdataexcel.xlsx
+++ b/nopCommerce_SQA/testdata/tdataexcel.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python-Selenium\nopCommerce_SQA\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F353E23-E934-445E-B8A5-B125D6B16DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30213686-C0B2-4733-991E-A08A969813FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="Billing" sheetId="2" r:id="rId2"/>
-    <sheet name="PaymentInfo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>type</t>
   </si>
@@ -74,9 +73,6 @@
     <t>bs23</t>
   </si>
   <si>
-    <t>abc121@gmail.com</t>
-  </si>
-  <si>
     <t>cheacked</t>
   </si>
   <si>
@@ -122,38 +118,26 @@
     <t>Banasree</t>
   </si>
   <si>
-    <t>cardtype</t>
-  </si>
-  <si>
-    <t>cardholdername</t>
-  </si>
-  <si>
-    <t>cardnumber</t>
-  </si>
-  <si>
-    <t>expirationmonth</t>
-  </si>
-  <si>
-    <t>expirationyear</t>
-  </si>
-  <si>
-    <t>cardcode</t>
-  </si>
-  <si>
-    <t>Visa</t>
-  </si>
-  <si>
-    <t>4693-9238-1753-7274</t>
-  </si>
-  <si>
-    <t>Michele Gerlach</t>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>adila</t>
+  </si>
+  <si>
+    <t>khan</t>
+  </si>
+  <si>
+    <t>abc12121@gmail.com</t>
+  </si>
+  <si>
+    <t>abc12131@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,18 +152,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF808080"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF202020"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,13 +175,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -491,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,6 +470,7 @@
     <col min="1" max="1" width="21.7265625" customWidth="1"/>
     <col min="2" max="2" width="23.6328125" customWidth="1"/>
     <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="8" max="8" width="27.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -562,7 +531,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I2">
         <v>1234561</v>
@@ -571,15 +540,51 @@
         <v>1234561</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1998</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3">
+        <v>1234123</v>
+      </c>
+      <c r="J3">
+        <v>1234123</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{A53FEDE6-5B06-48C3-B866-F94C062ACB58}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{5D6E77C8-676C-46BE-936F-319AF171A8F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -598,48 +603,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
       </c>
       <c r="G2">
         <v>1212</v>
@@ -655,67 +660,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32BC3D9-FF64-4B40-9585-3C465D972CE6}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>2025</v>
-      </c>
-      <c r="F2">
-        <v>12121</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/nopCommerce_SQA/testdata/tdataexcel.xlsx
+++ b/nopCommerce_SQA/testdata/tdataexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python-Selenium\nopCommerce_SQA\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30213686-C0B2-4733-991E-A08A969813FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9102931E-A49E-4CC4-8CCE-68EB447B2DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,10 +127,10 @@
     <t>khan</t>
   </si>
   <si>
-    <t>abc12121@gmail.com</t>
-  </si>
-  <si>
-    <t>abc12131@gmail.com</t>
+    <t>abcd12131@gmail.com</t>
+  </si>
+  <si>
+    <t>abcde1211@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -531,7 +531,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>1234561</v>
@@ -566,7 +566,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3">
         <v>1234123</v>
